--- a/links.xlsx
+++ b/links.xlsx
@@ -20,39 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">links</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=uyDZJqPQZ7o</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=pzjT7_3Gr5M</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=d1fsGM5kToM</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=YqJ7J4UCIOk</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=n57AyXSWEEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=Wjtmw4t52TA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=Y3cNlDBONMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=KNVlusHWzHs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=x6U-IRYVB-s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=TJmVzP6NQ8w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=tfnrPUVqZvE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=iqT7YvtjRuY</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=qBsC1fQ1zRA</t>
   </si>
 </sst>
 </file>
@@ -154,15 +133,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A11"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,57 +149,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.youtube.com/watch?v=pzjT7_3Gr5M"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.youtube.com/watch?v=qBsC1fQ1zRA"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
